--- a/data/import/Exercise.xlsx
+++ b/data/import/Exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47DC81-1DA5-4E41-9F42-E5D0DDF965CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B488CD4-7AEC-4DC3-8627-D3F7443285E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4485" windowWidth="21600" windowHeight="11235" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -68,27 +68,12 @@
     <t>SELECT_IMAGE</t>
   </si>
   <si>
-    <t>Look and match: 'hobby'</t>
-  </si>
-  <si>
     <t>\n</t>
   </si>
   <si>
     <t>MULTIPLE_CHOICE</t>
   </si>
   <si>
-    <t>___ake</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
-    <t>Bánh kem</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -104,40 +89,64 @@
     <t>Listen and choose</t>
   </si>
   <si>
-    <t>Car</t>
-  </si>
-  <si>
     <t>PRONUNCIATION</t>
   </si>
   <si>
     <t>Listen and pronunciation</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
     <t>MATCHING</t>
   </si>
   <si>
     <t>Matching</t>
   </si>
   <si>
-    <t xml:space="preserve">Car|xe hơi </t>
-  </si>
-  <si>
-    <t>I have|CarS</t>
-  </si>
-  <si>
     <t>g1-u2-car.png</t>
   </si>
   <si>
-    <t>g1-u6-exWashing.mp3</t>
-  </si>
-  <si>
-    <t>CarImg|g1-u2-car.png</t>
-  </si>
-  <si>
     <t>g1-u2-car.png|g1-u2-car.png</t>
+  </si>
+  <si>
+    <t>Look and match: 'hi'</t>
+  </si>
+  <si>
+    <t>g3-u1-hi.png</t>
+  </si>
+  <si>
+    <t>g3-u1-bye.png</t>
+  </si>
+  <si>
+    <t>_i</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Xin chào</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g3-u1-hi.mp3</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>Goobye</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hi|xin chào</t>
+  </si>
+  <si>
+    <t>Hi Image|g3-u1-hi.png</t>
+  </si>
+  <si>
+    <t>Bill|Hello</t>
   </si>
 </sst>
 </file>
@@ -523,18 +532,18 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.85546875" customWidth="1"/>
     <col min="9" max="9" width="32.42578125" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,174 +587,174 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/import/Exercise.xlsx
+++ b/data/import/Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B488CD4-7AEC-4DC3-8627-D3F7443285E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8A582-125B-490A-83DF-D084A3F0878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>SELECT_IMAGE</t>
-  </si>
-  <si>
-    <t>\n</t>
   </si>
   <si>
     <t>MULTIPLE_CHOICE</t>
@@ -532,7 +529,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,174 +584,111 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/import/Exercise.xlsx
+++ b/data/import/Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8A582-125B-490A-83DF-D084A3F0878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6F944-4324-4155-98A9-C2F9D199D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -62,9 +62,6 @@
     <t>optT</t>
   </si>
   <si>
-    <t>optF</t>
-  </si>
-  <si>
     <t>SELECT_IMAGE</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Bill|Hello</t>
+  </si>
+  <si>
+    <t>optF1</t>
+  </si>
+  <si>
+    <t>optF2</t>
+  </si>
+  <si>
+    <t>optF3</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,125 +576,125 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
         <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/import/Exercise.xlsx
+++ b/data/import/Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6F944-4324-4155-98A9-C2F9D199D4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734065BD-39EA-4820-B69A-66203CC84020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63998D71-9BE4-4E89-BA80-C31794CAC3F5}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
